--- a/data/trans_dic/P2C_R1-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R1-Estudios-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.006192554501227771</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.3210708735295144</v>
+        <v>0.3210708735295145</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.006095099599971124</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.001212980274999481</v>
+        <v>0.001206001099466766</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.001491332387766161</v>
+        <v>0.001374458113009843</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.001546573173153733</v>
+        <v>0.001548264089599876</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2402265119633424</v>
+        <v>0.2387257551184827</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.003078655876615312</v>
+        <v>0.002855457633844717</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.003977687083794323</v>
+        <v>0.003938975739489327</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.001628257083121828</v>
+        <v>0.001620927580021492</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2850914254768003</v>
+        <v>0.2832681870035987</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.002819243733607663</v>
+        <v>0.003025180491124107</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.003769364972311617</v>
+        <v>0.003879699685124462</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.002439679821799224</v>
+        <v>0.002706272349815389</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2821105260995828</v>
+        <v>0.2786662503786955</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01199057653647312</v>
+        <v>0.0115961529846966</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01454044212900848</v>
+        <v>0.01371238980449981</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01443829394011745</v>
+        <v>0.01403538453685761</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3831819654678762</v>
+        <v>0.3854721344543775</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01685730273585175</v>
+        <v>0.01625488014701222</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01750248506347752</v>
+        <v>0.01558674062405787</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01461906668634362</v>
+        <v>0.01577610594619825</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3632051352403894</v>
+        <v>0.3657059208327496</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01144584228644139</v>
+        <v>0.01161004565768993</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01242982900041795</v>
+        <v>0.01286466922036235</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01148229062545882</v>
+        <v>0.01248418196705115</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3533849041064817</v>
+        <v>0.3529116880045574</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.008064608576697401</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.08688503718678516</v>
+        <v>0.08688503718678517</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0009570988238588626</v>
+        <v>0.0009596143627284324</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0008045869899949783</v>
+        <v>0.0008086086226214596</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.005542258938354937</v>
+        <v>0.005434952286816542</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07132830281506032</v>
+        <v>0.06974660048085136</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.001941573974107712</v>
+        <v>0.002410466521506677</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.004025277339654749</v>
+        <v>0.004189353898868613</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.002445187481400453</v>
+        <v>0.002493842216260375</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05794582803537136</v>
+        <v>0.05810295856833032</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.002442826713882071</v>
+        <v>0.002576002849378208</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.003065590575631339</v>
+        <v>0.003037987835357663</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.005001706822196838</v>
+        <v>0.004978654190233826</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.07115885412989063</v>
+        <v>0.06915820366413569</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01300339674839626</v>
+        <v>0.01518371813822525</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.007224643458081155</v>
+        <v>0.007543624664951388</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01875649640983817</v>
+        <v>0.01886173157354703</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1325181481761822</v>
+        <v>0.135147455159072</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01404404609927566</v>
+        <v>0.01370402848475227</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01539836302383563</v>
+        <v>0.01621960768301335</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01156220379791273</v>
+        <v>0.01200153371934519</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1019733960383566</v>
+        <v>0.09977192737713686</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01099402112839941</v>
+        <v>0.01044481496061671</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.009809278647113362</v>
+        <v>0.009954030729926342</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01280173310129088</v>
+        <v>0.01269467749296341</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1083649398811083</v>
+        <v>0.1080336787988675</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.01183867919470123</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1340168170608486</v>
+        <v>0.1340168170608485</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.01431409085692888</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.00296087896760349</v>
+        <v>0.003583880758622493</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01775162653250104</v>
+        <v>0.01793353534674175</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.003677369609712667</v>
+        <v>0.003636452850216681</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06055317982112918</v>
+        <v>0.05857800252693936</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.003515484663078157</v>
+        <v>0.003527946443456355</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01655829606980218</v>
+        <v>0.0151326103913873</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01764101603096172</v>
+        <v>0.01655790366704529</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06530603256523432</v>
+        <v>0.0653435566965639</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.005427379340362637</v>
+        <v>0.006476731758402555</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02043293025370856</v>
+        <v>0.02205205957371435</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01255829569539356</v>
+        <v>0.01330309735504127</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.07561911671105159</v>
+        <v>0.08031226650963462</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02814545691308829</v>
+        <v>0.03455453125670133</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07199327285573813</v>
+        <v>0.0764694644708391</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03625084213254456</v>
+        <v>0.03189597875523312</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.274473155601402</v>
+        <v>0.2757399049161192</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03255092273965429</v>
+        <v>0.0356514009247815</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07034451294738436</v>
+        <v>0.06854414662498137</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05698987766117913</v>
+        <v>0.05866787997568338</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1591494849898415</v>
+        <v>0.1628324868466477</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02513670459345016</v>
+        <v>0.02834438422947299</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05853196345738061</v>
+        <v>0.06210892182918405</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03816612129985592</v>
+        <v>0.03896578827051821</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1858832709264452</v>
+        <v>0.2005795117983072</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.002705986570047548</v>
+        <v>0.002882295472978949</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.004547651123188552</v>
+        <v>0.00460148216150098</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.005597576249330589</v>
+        <v>0.005648494897444224</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1240799448950396</v>
+        <v>0.1265589555563436</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.004310028726951489</v>
+        <v>0.004449152878521468</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.007396298669008294</v>
+        <v>0.007108124791954235</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.006530105032344288</v>
+        <v>0.00631587070819909</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1468537107071563</v>
+        <v>0.1472064651711945</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.004556869694593435</v>
+        <v>0.004607525325048698</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.006672000154530256</v>
+        <v>0.006919985732180394</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.00682894571977156</v>
+        <v>0.006697784082525954</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1415995583267383</v>
+        <v>0.1416353428920592</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01049363282593224</v>
+        <v>0.01096341272816494</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01346508328943158</v>
+        <v>0.01379794670388261</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01523755131775772</v>
+        <v>0.01481258531947335</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1851293533820008</v>
+        <v>0.1867220852714042</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.01256009788601419</v>
+        <v>0.01275948252097032</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01712030580981883</v>
+        <v>0.01628351536622615</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01539484628784234</v>
+        <v>0.01426738277821861</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1884780482627434</v>
+        <v>0.1871014110087715</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01008152575337148</v>
+        <v>0.01009423674736567</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.01278126747421782</v>
+        <v>0.01328583262250944</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01329449410652458</v>
+        <v>0.01286757501811493</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1781807560924269</v>
+        <v>0.1791941979613555</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1069</v>
+        <v>985</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>802</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>30119</v>
+        <v>29931</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3079</v>
+        <v>2856</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4226</v>
+        <v>4184</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>78925</v>
+        <v>78421</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>4731</v>
+        <v>5077</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>6707</v>
+        <v>6903</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>3181</v>
+        <v>3528</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>113471</v>
+        <v>112085</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>8131</v>
+        <v>7863</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>10425</v>
+        <v>9832</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>7483</v>
+        <v>7274</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>48043</v>
+        <v>48330</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>16859</v>
+        <v>16256</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>18593</v>
+        <v>16558</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>11484</v>
+        <v>12393</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>100550</v>
+        <v>101243</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>19208</v>
+        <v>19484</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>22117</v>
+        <v>22890</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>14971</v>
+        <v>16277</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>142139</v>
+        <v>141948</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>932</v>
+        <v>937</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6107</v>
+        <v>5989</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>24514</v>
+        <v>23971</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1963</v>
+        <v>2437</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>4761</v>
+        <v>4956</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>3014</v>
+        <v>3074</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>23622</v>
+        <v>23686</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>4767</v>
+        <v>5027</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>7177</v>
+        <v>7112</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>11676</v>
+        <v>11623</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>53465</v>
+        <v>51962</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>12226</v>
+        <v>14276</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>8367</v>
+        <v>8737</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>20669</v>
+        <v>20785</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>45544</v>
+        <v>46448</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>14200</v>
+        <v>13856</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>18214</v>
+        <v>19186</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>14251</v>
+        <v>14792</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>41571</v>
+        <v>40673</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>21453</v>
+        <v>20381</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>22964</v>
+        <v>23303</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>29885</v>
+        <v>29636</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>81419</v>
+        <v>81171</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>864</v>
+        <v>1046</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4608</v>
+        <v>4655</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>5504</v>
+        <v>5324</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4446</v>
+        <v>4063</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>5511</v>
+        <v>5173</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>6780</v>
+        <v>6784</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>3159</v>
+        <v>3770</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>10791</v>
+        <v>11646</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>7293</v>
+        <v>7726</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>14724</v>
+        <v>15638</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8216</v>
+        <v>10087</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>18688</v>
+        <v>19850</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9727</v>
+        <v>8559</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>24948</v>
+        <v>25063</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>9445</v>
+        <v>10345</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>18889</v>
+        <v>18406</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>17805</v>
+        <v>18329</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>16523</v>
+        <v>16905</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>14632</v>
+        <v>16499</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>30911</v>
+        <v>32800</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>22165</v>
+        <v>22629</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>36194</v>
+        <v>39055</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5169</v>
+        <v>5506</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>9708</v>
+        <v>9823</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>10571</v>
+        <v>10667</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>69479</v>
+        <v>70867</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>9919</v>
+        <v>10239</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>18592</v>
+        <v>17868</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>15219</v>
+        <v>14719</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>115768</v>
+        <v>116046</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>19192</v>
+        <v>19405</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>31015</v>
+        <v>32167</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>28812</v>
+        <v>28258</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>190916</v>
+        <v>190964</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>20045</v>
+        <v>20943</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>28745</v>
+        <v>29455</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>28776</v>
+        <v>27974</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>103664</v>
+        <v>104556</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>28905</v>
+        <v>29364</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>43036</v>
+        <v>40932</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>35878</v>
+        <v>33250</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>148582</v>
+        <v>147497</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>42459</v>
+        <v>42513</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>59413</v>
+        <v>61759</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>56090</v>
+        <v>54289</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>240238</v>
+        <v>241604</v>
       </c>
     </row>
     <row r="20">
